--- a/Tabela de Release.xlsx
+++ b/Tabela de Release.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Tópicos</t>
   </si>
@@ -30,42 +30,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>&lt;Descrição&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4- </t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Quem?</t>
-  </si>
-  <si>
-    <t>Quando?</t>
-  </si>
-  <si>
-    <t>Onde?</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Obs: Conforme vão sendo compridas as tarefas, vao se preenchendo a barrinha de status! </t>
   </si>
   <si>
@@ -73,6 +37,99 @@
   </si>
   <si>
     <t>Obs3: Para cada Release haverá uma tabela de tarefas, ou seja, no final, haverá 4 tabela de tarefas!</t>
+  </si>
+  <si>
+    <t>ao centro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TODO INSTANTE</t>
+  </si>
+  <si>
+    <t>TODOS</t>
+  </si>
+  <si>
+    <t>NA SUA CASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADA UM </t>
+  </si>
+  <si>
+    <t>TODO INSTANTE</t>
+  </si>
+  <si>
+    <t>CADA UM</t>
+  </si>
+  <si>
+    <t>Previsão de entrega</t>
+  </si>
+  <si>
+    <t>DATA:21/09/2013</t>
+  </si>
+  <si>
+    <t>DATA:22/09/2013</t>
+  </si>
+  <si>
+    <t>Horario: 18:00</t>
+  </si>
+  <si>
+    <t>Horario: 15:00</t>
+  </si>
+  <si>
+    <t>Horario: 19:00</t>
+  </si>
+  <si>
+    <t>O alimento ao centro e a cobra andando e comendo(Mas sem crescer)</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>O programa estará funcionando.</t>
+  </si>
+  <si>
+    <t>Irá mostrar o painel do jogo e a fruta no centro</t>
+  </si>
+  <si>
+    <t>T2- Gera o corpo a cada comida</t>
+  </si>
+  <si>
+    <t>T3 - Muda a velocidade a cada "Comida"</t>
+  </si>
+  <si>
+    <t>T4- Finalização e testes finais</t>
+  </si>
+  <si>
+    <t>T1- Aparecer a cabeça da cobra</t>
+  </si>
+  <si>
+    <t>T2- Executa os movimentos da cobra</t>
+  </si>
+  <si>
+    <t>T3- Faz a cobra comer</t>
+  </si>
+  <si>
+    <t>T4- Gera a comida em um lugar aleatório</t>
+  </si>
+  <si>
+    <t>T1-  Geração da janela(600x800)</t>
+  </si>
+  <si>
+    <t>T2- Geração do Fundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3- Fazer uma fruta aparecer </t>
+  </si>
+  <si>
+    <t>Tarefas</t>
+  </si>
+  <si>
+    <t>T1-  Definição do corpo</t>
   </si>
 </sst>
 </file>
@@ -115,12 +172,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -128,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,37 +210,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,22 +551,26 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -511,274 +578,289 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
+      <c r="A2" s="7"/>
+      <c r="B2" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="G6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="F7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="2">
         <v>0.25</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="G8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
+      <c r="A9" s="8"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="2">
         <v>0.5</v>
       </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>10</v>
+      <c r="A12" s="9"/>
+      <c r="B12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
+      <c r="F12" s="14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="2">
         <v>0.25</v>
       </c>
+      <c r="F13" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>12</v>
+      <c r="A14" s="9"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="2">
         <v>0.5</v>
       </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
